--- a/teaching/traditional_assets/database/data/australia/australia_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_computers_peripherals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-7.693634741225461</v>
+        <v>-6.47244094488189</v>
       </c>
       <c r="H2">
-        <v>-11.19869125520523</v>
+        <v>-10.79396325459318</v>
       </c>
       <c r="I2">
-        <v>-11.20313887217481</v>
+        <v>-11.00393700787401</v>
       </c>
       <c r="J2">
-        <v>-11.20313887217481</v>
+        <v>-11.00393700787401</v>
       </c>
       <c r="K2">
-        <v>-18.56</v>
+        <v>-18.32</v>
       </c>
       <c r="L2">
-        <v>-11.04104699583581</v>
+        <v>-12.02099737532808</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.995</v>
+        <v>6.38</v>
       </c>
       <c r="V2">
-        <v>0.07204688908926961</v>
+        <v>0.02274753093022426</v>
       </c>
       <c r="W2">
-        <v>-0.6004924831518923</v>
+        <v>-1.234710743801653</v>
       </c>
       <c r="X2">
-        <v>0.09372926380356507</v>
+        <v>0.06895119733028632</v>
       </c>
       <c r="Y2">
-        <v>-0.6942217469554574</v>
+        <v>-1.303661941131939</v>
       </c>
       <c r="Z2">
-        <v>0.1468842937602939</v>
+        <v>0.1333916849015317</v>
       </c>
       <c r="AA2">
-        <v>-1.201230881035972</v>
+        <v>-0.7137129109863674</v>
       </c>
       <c r="AB2">
-        <v>0.08936946782364109</v>
+        <v>0.06758625691391859</v>
       </c>
       <c r="AC2">
-        <v>-1.289630752575934</v>
+        <v>-0.7814319310845015</v>
       </c>
       <c r="AD2">
-        <v>1.252</v>
+        <v>2.535</v>
       </c>
       <c r="AE2">
-        <v>0.5173822206293113</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.769382220629311</v>
+        <v>2.535</v>
       </c>
       <c r="AG2">
-        <v>-2.225617779370689</v>
+        <v>-3.845</v>
       </c>
       <c r="AH2">
-        <v>0.03092277742193791</v>
+        <v>0.00895743891450681</v>
       </c>
       <c r="AI2">
-        <v>0.1164114563964201</v>
+        <v>0.2712390327412797</v>
       </c>
       <c r="AJ2">
-        <v>-0.04181575598463327</v>
+        <v>-0.0138996836873023</v>
       </c>
       <c r="AK2">
-        <v>-0.1986381520681185</v>
+        <v>-1.296358732299393</v>
       </c>
       <c r="AL2">
-        <v>0.16</v>
+        <v>0.082</v>
       </c>
       <c r="AM2">
-        <v>-0.175</v>
+        <v>-0.074</v>
       </c>
       <c r="AN2">
-        <v>-0.0679732884521418</v>
+        <v>-0.1541033434650456</v>
       </c>
       <c r="AO2">
-        <v>-119.59375</v>
+        <v>-204.5121951219512</v>
       </c>
       <c r="AP2">
-        <v>0.1208327150969482</v>
+        <v>0.2337386018237081</v>
       </c>
       <c r="AQ2">
-        <v>109.3428571428571</v>
+        <v>226.6216216216216</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STEMify Limited (ASX:SF1)</t>
+          <t>Weebit Nano Limited (ASX:WBT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,23 +715,8 @@
           <t>Computers/Peripherals</t>
         </is>
       </c>
-      <c r="G3">
-        <v>-21.19444444444445</v>
-      </c>
-      <c r="H3">
-        <v>-21.52777777777778</v>
-      </c>
-      <c r="I3">
-        <v>-20.35263476224364</v>
-      </c>
-      <c r="J3">
-        <v>-20.35263476224364</v>
-      </c>
       <c r="K3">
-        <v>-3.19</v>
-      </c>
-      <c r="L3">
-        <v>-88.61111111111111</v>
+        <v>-2.78</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +740,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.008</v>
+        <v>2.84</v>
       </c>
       <c r="V3">
-        <v>0.002416918429003021</v>
+        <v>0.0129798903107861</v>
       </c>
       <c r="W3">
-        <v>2.953703703703703</v>
+        <v>-2.482142857142857</v>
       </c>
       <c r="X3">
-        <v>0.0983926939768415</v>
+        <v>0.06760457328546611</v>
       </c>
       <c r="Y3">
-        <v>2.855311009726862</v>
+        <v>-2.549747430428323</v>
       </c>
       <c r="Z3">
-        <v>-0.09637889943143034</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>1.961564538914913</v>
+        <v>57.80000000000021</v>
       </c>
       <c r="AB3">
-        <v>0.09308158116968987</v>
+        <v>0.06758625691391859</v>
       </c>
       <c r="AC3">
-        <v>1.868482957745223</v>
+        <v>57.73241374308629</v>
       </c>
       <c r="AD3">
-        <v>0.51</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.09847425720385483</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.6084742572038548</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.6004742572038548</v>
+        <v>-2.754</v>
       </c>
       <c r="AH3">
-        <v>0.1552834642425468</v>
+        <v>0.0003928985864788063</v>
       </c>
       <c r="AI3">
-        <v>-0.96349873959179</v>
+        <v>0.0358931552587646</v>
       </c>
       <c r="AJ3">
-        <v>0.1535553535732052</v>
+        <v>-0.0127472853003527</v>
       </c>
       <c r="AK3">
-        <v>-0.938936804292586</v>
+        <v>6.202702702702704</v>
       </c>
       <c r="AL3">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.078</v>
+        <v>-0.113</v>
       </c>
       <c r="AN3">
-        <v>-0.7254623044096727</v>
-      </c>
-      <c r="AO3">
-        <v>-9.936708860759493</v>
+        <v>-0.02986111111111111</v>
       </c>
       <c r="AP3">
-        <v>-0.8541596830780296</v>
+        <v>0.95625</v>
       </c>
       <c r="AQ3">
-        <v>-10.06410256410256</v>
+        <v>25.57522123893805</v>
       </c>
     </row>
     <row r="4">
@@ -841,22 +823,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-55.1764705882353</v>
+        <v>-9.382716049382715</v>
       </c>
       <c r="H4">
-        <v>-55.1764705882353</v>
+        <v>-13.45679012345679</v>
       </c>
       <c r="I4">
-        <v>-54.98368450552248</v>
+        <v>-13.73456790123457</v>
       </c>
       <c r="J4">
-        <v>-54.98368450552248</v>
+        <v>-13.73456790123457</v>
       </c>
       <c r="K4">
-        <v>-3.65</v>
+        <v>-7.47</v>
       </c>
       <c r="L4">
-        <v>-42.94117647058823</v>
+        <v>-23.05555555555555</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,73 +862,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.5570000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="V4">
-        <v>0.1062977099236641</v>
+        <v>0.05177993527508091</v>
       </c>
       <c r="W4">
-        <v>-0.5676516329704511</v>
+        <v>-1.234710743801653</v>
       </c>
       <c r="X4">
-        <v>0.09775346636953837</v>
+        <v>0.07066518973660181</v>
       </c>
       <c r="Y4">
-        <v>-0.6654050993399895</v>
+        <v>-1.305375933538255</v>
       </c>
       <c r="Z4">
-        <v>0.01303268030556132</v>
+        <v>0.05196471531676023</v>
       </c>
       <c r="AA4">
-        <v>-0.7165847821823202</v>
+        <v>-0.7137129109863674</v>
       </c>
       <c r="AB4">
-        <v>0.08737264188377934</v>
+        <v>0.06771902009813409</v>
       </c>
       <c r="AC4">
-        <v>-0.8039574240660996</v>
+        <v>-0.7814319310845015</v>
       </c>
       <c r="AD4">
-        <v>0.742</v>
+        <v>0.699</v>
       </c>
       <c r="AE4">
-        <v>0.1530659148470547</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.8950659148470547</v>
+        <v>0.699</v>
       </c>
       <c r="AG4">
-        <v>0.3380659148470546</v>
+        <v>0.219</v>
       </c>
       <c r="AH4">
-        <v>0.1458934471561205</v>
+        <v>0.07011736382786639</v>
       </c>
       <c r="AI4">
-        <v>0.1288779582255075</v>
+        <v>0.7681318681318682</v>
       </c>
       <c r="AJ4">
-        <v>0.06060629616212129</v>
+        <v>0.023079355042681</v>
       </c>
       <c r="AK4">
-        <v>0.05292148192480708</v>
+        <v>0.5093023255813953</v>
       </c>
       <c r="AL4">
-        <v>0.081</v>
+        <v>0.077</v>
       </c>
       <c r="AM4">
-        <v>0.081</v>
+        <v>0.077</v>
       </c>
       <c r="AN4">
-        <v>-0.1629694706786734</v>
+        <v>-0.1603211009174312</v>
       </c>
       <c r="AO4">
-        <v>-59.01234567901235</v>
+        <v>-57.7922077922078</v>
       </c>
       <c r="AP4">
-        <v>-0.07425124420097838</v>
+        <v>-0.05022935779816513</v>
       </c>
       <c r="AQ4">
-        <v>-59.01234567901235</v>
+        <v>-57.7922077922078</v>
       </c>
     </row>
     <row r="5">
@@ -966,22 +948,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>-3.314102564102564</v>
+        <v>-3.375000000000001</v>
       </c>
       <c r="H5">
-        <v>-5.391025641025641</v>
+        <v>-7.675000000000001</v>
       </c>
       <c r="I5">
-        <v>-5.464993107126692</v>
+        <v>-7.858333333333333</v>
       </c>
       <c r="J5">
-        <v>-5.464993107126692</v>
+        <v>-7.858333333333333</v>
       </c>
       <c r="K5">
-        <v>-7.03</v>
+        <v>-8.07</v>
       </c>
       <c r="L5">
-        <v>-4.506410256410256</v>
+        <v>-6.725000000000001</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1005,177 +987,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2.26</v>
+        <v>3.06</v>
       </c>
       <c r="V5">
-        <v>0.08401486988847583</v>
+        <v>0.0583969465648855</v>
       </c>
       <c r="W5">
-        <v>-0.6333333333333334</v>
+        <v>-1.076</v>
       </c>
       <c r="X5">
-        <v>0.08959575139940446</v>
+        <v>0.06895119733028632</v>
       </c>
       <c r="Y5">
-        <v>-0.7229290847327379</v>
+        <v>-1.144951197330286</v>
       </c>
       <c r="Z5">
-        <v>0.3084865702192991</v>
+        <v>0.2290076335877863</v>
       </c>
       <c r="AA5">
-        <v>-1.685876979889624</v>
+        <v>-1.799618320610687</v>
       </c>
       <c r="AB5">
-        <v>0.08942710119614478</v>
+        <v>0.06740107553290864</v>
       </c>
       <c r="AC5">
-        <v>-1.775304081085769</v>
+        <v>-1.867019396143595</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AE5">
-        <v>0.1269462355882027</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.1269462355882027</v>
+        <v>1.75</v>
       </c>
       <c r="AG5">
-        <v>-2.133053764411797</v>
+        <v>-1.31</v>
       </c>
       <c r="AH5">
-        <v>0.004697024757500869</v>
+        <v>0.03231763619575254</v>
       </c>
       <c r="AI5">
-        <v>0.01664443824133138</v>
+        <v>0.2897350993377483</v>
       </c>
       <c r="AJ5">
-        <v>-0.08612502099054758</v>
+        <v>-0.02564102564102564</v>
       </c>
       <c r="AK5">
-        <v>-0.3974427301446631</v>
+        <v>-0.4395973154362416</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AM5">
-        <v>-0.074</v>
+        <v>-0.038</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>-0.1900108577633007</v>
+      </c>
+      <c r="AO5">
+        <v>-1886</v>
       </c>
       <c r="AP5">
-        <v>0.2573044347903253</v>
+        <v>0.1422366992399565</v>
       </c>
       <c r="AQ5">
-        <v>116.4864864864865</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Weebit Nano Limited (ASX:WBT)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Computers/Peripherals</t>
-        </is>
-      </c>
-      <c r="K6">
-        <v>-4.69</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1.17</v>
-      </c>
-      <c r="V6">
-        <v>0.0585</v>
-      </c>
-      <c r="W6">
-        <v>-1.817829457364341</v>
-      </c>
-      <c r="X6">
-        <v>0.08970506123759177</v>
-      </c>
-      <c r="Y6">
-        <v>-1.907534518601933</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>-20.51429491901182</v>
-      </c>
-      <c r="AB6">
-        <v>0.08931183445113741</v>
-      </c>
-      <c r="AC6">
-        <v>-20.60360675346296</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0.138895812990199</v>
-      </c>
-      <c r="AF6">
-        <v>0.138895812990199</v>
-      </c>
-      <c r="AG6">
-        <v>-1.031104187009801</v>
-      </c>
-      <c r="AH6">
-        <v>0.00689689317031011</v>
-      </c>
-      <c r="AI6">
-        <v>0.1103314599643365</v>
-      </c>
-      <c r="AJ6">
-        <v>-0.05435762825497121</v>
-      </c>
-      <c r="AK6">
-        <v>-11.59901858508771</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>-0.26</v>
-      </c>
-      <c r="AN6">
-        <v>-0</v>
-      </c>
-      <c r="AP6">
-        <v>0.211595359534127</v>
-      </c>
-      <c r="AQ6">
-        <v>19.03846153846154</v>
+        <v>248.1578947368421</v>
       </c>
     </row>
   </sheetData>
